--- a/output/1Y_P26_1VAL-D.xlsx
+++ b/output/1Y_P26_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G2" s="1">
-        <v>698.1826</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.125</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3229</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E3" s="1">
+        <v>698.1826</v>
+      </c>
       <c r="F3" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G3" s="1">
-        <v>1400.7209</v>
-      </c>
       <c r="H3" s="1">
-        <v>19834.4881</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2784</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3229</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19834.4881</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0057</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E4" s="1">
+        <v>1400.7209</v>
+      </c>
       <c r="F4" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G4" s="1">
-        <v>2128.2264</v>
-      </c>
       <c r="H4" s="1">
-        <v>29102.0067</v>
+        <v>19153.8778</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19153.8778</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29102.0067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0246</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E5" s="1">
+        <v>2128.2264</v>
+      </c>
       <c r="F5" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G5" s="1">
-        <v>2816.3393</v>
-      </c>
       <c r="H5" s="1">
-        <v>40716.0986</v>
+        <v>30767.9823</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.2028</v>
+        <v>30767.9823</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14.0962</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75</v>
       </c>
-      <c r="L5" s="1">
-        <v>1436.5528</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8563.447200000001</v>
+        <v>945.4866</v>
       </c>
       <c r="O5" s="1">
-        <v>1436.5528</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42152.6515</v>
+        <v>-9054.5134</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.078</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E6" s="1">
+        <v>2816.3393</v>
+      </c>
       <c r="F6" s="1">
-        <v>724.3286000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3540.6679</v>
+        <v>719.9609</v>
       </c>
       <c r="H6" s="1">
-        <v>49501.7234</v>
+        <v>39374.9579</v>
       </c>
       <c r="I6" s="1">
-        <v>50179.5691</v>
+        <v>945.4866</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1723</v>
+        <v>40320.4445</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40118.1858</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.2448</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1256.9837</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50758.7071</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0267</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E7" s="1">
+        <v>3536.3001</v>
+      </c>
       <c r="F7" s="1">
-        <v>771.9222</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4312.59</v>
+        <v>767.2674</v>
       </c>
       <c r="H7" s="1">
-        <v>56576.4373</v>
+        <v>46392.3678</v>
       </c>
       <c r="I7" s="1">
-        <v>60359.1382</v>
+        <v>827.3008</v>
       </c>
       <c r="J7" s="1">
-        <v>13.996</v>
+        <v>47219.6686</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50236.3717</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.2059</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1077.4146</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57653.852</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0511</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E8" s="1">
+        <v>4303.5676</v>
+      </c>
       <c r="F8" s="1">
-        <v>779.8165</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5092.4066</v>
+        <v>775.1142</v>
       </c>
       <c r="H8" s="1">
-        <v>66130.5009</v>
+        <v>55886.5588</v>
       </c>
       <c r="I8" s="1">
-        <v>70538.70729999999</v>
+        <v>709.115</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8517</v>
+        <v>56595.6737</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60354.5575</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.0243</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>897.8455</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67028.34639999999</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0092</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E9" s="1">
+        <v>5078.6818</v>
+      </c>
       <c r="F9" s="1">
-        <v>735.3427</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5827.7492</v>
+        <v>730.9085</v>
       </c>
       <c r="H9" s="1">
-        <v>80256.84849999999</v>
+        <v>69941.06600000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80718.2764</v>
+        <v>590.9290999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8507</v>
+        <v>70531.9952</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70472.7433</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8762</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>718.2764</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>80975.1249</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0512</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E10" s="1">
+        <v>5809.5903</v>
+      </c>
       <c r="F10" s="1">
-        <v>706.4926</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6534.2418</v>
+        <v>702.2324</v>
       </c>
       <c r="H10" s="1">
-        <v>93661.1688</v>
+        <v>83274.08620000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90897.8455</v>
+        <v>472.7433</v>
       </c>
       <c r="J10" s="1">
-        <v>13.911</v>
+        <v>83746.82950000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80590.92909999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8721</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>538.7073</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94199.87609999999</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0354</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E11" s="1">
+        <v>6511.8227</v>
+      </c>
       <c r="F11" s="1">
-        <v>681.6463</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7215.8881</v>
+        <v>677.5359</v>
       </c>
       <c r="H11" s="1">
-        <v>107201.3982</v>
+        <v>96741.5914</v>
       </c>
       <c r="I11" s="1">
-        <v>101077.4146</v>
+        <v>354.5575</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0076</v>
+        <v>97096.1489</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90709.11500000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9299</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>359.1382</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107560.5364</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0323</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E12" s="1">
+        <v>7189.3586</v>
+      </c>
       <c r="F12" s="1">
-        <v>638.9666</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7854.8547</v>
+        <v>635.1136</v>
       </c>
       <c r="H12" s="1">
-        <v>124489.236</v>
+        <v>113941.9877</v>
       </c>
       <c r="I12" s="1">
-        <v>111256.9837</v>
+        <v>236.3717</v>
       </c>
       <c r="J12" s="1">
-        <v>14.1641</v>
+        <v>114178.3594</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100827.3008</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.0245</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>179.5691</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>124668.8051</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0605</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E13" s="1">
+        <v>7824.4722</v>
+      </c>
       <c r="F13" s="1">
-        <v>598.0699</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8452.9247</v>
+        <v>594.4636</v>
       </c>
       <c r="H13" s="1">
-        <v>143128.3016</v>
+        <v>132487.0937</v>
       </c>
       <c r="I13" s="1">
-        <v>121436.5528</v>
+        <v>118.1858</v>
       </c>
       <c r="J13" s="1">
-        <v>14.3662</v>
+        <v>132605.2796</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110945.4866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.1793</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10179.5691</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>143128.3016</v>
+        <v>-10118.1858</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06279999999999999</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E14" s="1">
+        <v>8418.935799999999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8452.9247</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7824.4722</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>146238.5985</v>
       </c>
       <c r="I14" s="1">
-        <v>121436.5528</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>14.3662</v>
+        <v>146238.5985</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110945.4866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.1781</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>146828.9921</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>146828.9921</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>146828.9921</v>
+        <v>135912.6477</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0411</v>
+        <v>0.0255</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.3229</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1826</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1826</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3229</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.2341</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>698.1826</v>
       </c>
       <c r="F3" s="1">
         <v>702.5383</v>
       </c>
       <c r="G3" s="1">
-        <v>1400.7209</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19834.4881</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2784</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3229</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19834.4881</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0057</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.7456</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1400.7209</v>
       </c>
       <c r="F4" s="1">
         <v>727.5055</v>
       </c>
       <c r="G4" s="1">
-        <v>2128.2264</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29102.0067</v>
+        <v>19153.8778</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19153.8778</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29102.0067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0246</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.5325</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2128.2264</v>
       </c>
       <c r="F5" s="1">
         <v>638.5802</v>
       </c>
       <c r="G5" s="1">
-        <v>2766.8066</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30767.9823</v>
       </c>
       <c r="I5" s="1">
-        <v>39280.1666</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1969</v>
+        <v>30767.9823</v>
       </c>
       <c r="K5" s="1">
+        <v>29280.1666</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13.758</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75</v>
       </c>
-      <c r="L5" s="1">
-        <v>1436.5528</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7843.6138</v>
+        <v>945.4866</v>
       </c>
       <c r="O5" s="1">
-        <v>2156.3862</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42156.3862</v>
+        <v>-8334.68</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0781</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.0538</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2766.8066</v>
       </c>
       <c r="F6" s="1">
         <v>809.5011</v>
       </c>
       <c r="G6" s="1">
-        <v>3576.3077</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38682.4467</v>
       </c>
       <c r="I6" s="1">
-        <v>50656.7326</v>
+        <v>1665.32</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1645</v>
+        <v>40347.7667</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40656.7326</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.6945</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11376.5659</v>
       </c>
-      <c r="O6" s="1">
-        <v>779.8203</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50779.8203</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0103</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.1873</v>
       </c>
       <c r="E7" s="1">
+        <v>3576.3077</v>
+      </c>
+      <c r="F7" s="1">
+        <v>780.2017</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>817.4395</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4393.7472</v>
-      </c>
       <c r="H7" s="1">
-        <v>57641.1302</v>
+        <v>46917.2228</v>
       </c>
       <c r="I7" s="1">
-        <v>61436.5528</v>
+        <v>288.754</v>
       </c>
       <c r="J7" s="1">
-        <v>13.9827</v>
+        <v>47205.9768</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50945.4866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.2453</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10779.8203</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57641.1302</v>
+        <v>-10288.754</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0516</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4356.5094</v>
       </c>
       <c r="F8" s="1">
         <v>766.0605</v>
       </c>
       <c r="G8" s="1">
-        <v>5159.8077</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67005.77830000001</v>
+        <v>56574.0666</v>
       </c>
       <c r="I8" s="1">
-        <v>71436.5528</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8448</v>
+        <v>56574.0666</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60945.4866</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9895</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67005.77830000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.8433</v>
       </c>
       <c r="E9" s="1">
+        <v>5122.5698</v>
+      </c>
+      <c r="F9" s="1">
+        <v>686.5287</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>649.2908</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5809.0985</v>
-      </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70545.47070000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80424.88069999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8446</v>
+        <v>70545.47070000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70449.30869999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7527</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-8988.3279</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1011.6721</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81011.6721</v>
+        <v>-9503.822099999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.052</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.4086</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5809.0985</v>
       </c>
       <c r="F10" s="1">
         <v>469.723</v>
       </c>
       <c r="G10" s="1">
-        <v>6278.8215</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83267.037</v>
       </c>
       <c r="I10" s="1">
-        <v>87192.932</v>
+        <v>496.1779</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8868</v>
+        <v>83763.21490000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77217.36</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.2925</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6768.0513</v>
       </c>
-      <c r="O10" s="1">
-        <v>4243.6208</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94243.6208</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0355</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.9338</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6278.8215</v>
       </c>
       <c r="F11" s="1">
         <v>452.3296</v>
       </c>
       <c r="G11" s="1">
-        <v>6731.1511</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93280.0564</v>
       </c>
       <c r="I11" s="1">
-        <v>93947.93120000001</v>
+        <v>3728.1266</v>
       </c>
       <c r="J11" s="1">
-        <v>13.9572</v>
+        <v>97008.183</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83972.35920000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.3739</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6754.9992</v>
       </c>
-      <c r="O11" s="1">
-        <v>7488.6216</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107488.6216</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0311</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.9313</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6731.1511</v>
       </c>
       <c r="F12" s="1">
         <v>209.4813</v>
       </c>
       <c r="G12" s="1">
-        <v>6940.6324</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>106679.9943</v>
       </c>
       <c r="I12" s="1">
-        <v>97285.24000000001</v>
+        <v>6973.1274</v>
       </c>
       <c r="J12" s="1">
-        <v>14.0168</v>
+        <v>113653.1218</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87309.66800000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.971</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3337.3088</v>
       </c>
-      <c r="O12" s="1">
-        <v>14151.3128</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124151.3128</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0567</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.0207</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6940.6324</v>
       </c>
       <c r="F13" s="1">
         <v>146.3724</v>
       </c>
       <c r="G13" s="1">
-        <v>7087.0048</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>117521.5633</v>
       </c>
       <c r="I13" s="1">
-        <v>99776.6014</v>
+        <v>13635.8186</v>
       </c>
       <c r="J13" s="1">
-        <v>14.0788</v>
+        <v>131157.3819</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>89801.0294</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.9385</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2491.3614</v>
       </c>
-      <c r="O13" s="1">
-        <v>21659.9514</v>
-      </c>
-      <c r="P13" s="1">
-        <v>141659.9514</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.056</v>
+        <v>0.0607</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.4608</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7087.0048</v>
       </c>
       <c r="F14" s="1">
         <v>-7087.0048</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123102.6907</v>
       </c>
       <c r="I14" s="1">
-        <v>99776.6014</v>
+        <v>21144.4572</v>
       </c>
       <c r="J14" s="1">
-        <v>14.0788</v>
+        <v>144247.1479</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>89801.0294</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6712</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123102.6907</v>
       </c>
-      <c r="O14" s="1">
-        <v>144762.6421</v>
-      </c>
-      <c r="P14" s="1">
-        <v>144762.6421</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0455</v>
+        <v>0.0219</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.3229</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1826</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1826</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3229</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.2341</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>698.1826</v>
       </c>
       <c r="F3" s="1">
         <v>702.5383</v>
       </c>
       <c r="G3" s="1">
-        <v>1400.7209</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19834.4881</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2784</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3229</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19834.4881</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0057</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.7456</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1400.7209</v>
       </c>
       <c r="F4" s="1">
         <v>727.5055</v>
       </c>
       <c r="G4" s="1">
-        <v>2128.2264</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29102.0067</v>
+        <v>19153.8778</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19153.8778</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29102.0067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0246</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.5325</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2128.2264</v>
       </c>
       <c r="F5" s="1">
         <v>659.4005</v>
       </c>
       <c r="G5" s="1">
-        <v>2787.6269</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30767.9823</v>
       </c>
       <c r="I5" s="1">
-        <v>39582.7377</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1994</v>
+        <v>30767.9823</v>
       </c>
       <c r="K5" s="1">
+        <v>29582.7377</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13.9002</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75</v>
       </c>
-      <c r="L5" s="1">
-        <v>1436.5528</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8146.1849</v>
+        <v>945.4866</v>
       </c>
       <c r="O5" s="1">
-        <v>1853.8151</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42154.8164</v>
+        <v>-8637.251099999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0781</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.0538</v>
       </c>
       <c r="E6" s="1">
+        <v>2787.6269</v>
+      </c>
+      <c r="F6" s="1">
+        <v>808.5179000000001</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>824.6231</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3612.25</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>38973.5333</v>
       </c>
       <c r="I6" s="1">
-        <v>51171.8257</v>
+        <v>1362.7489</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1662</v>
+        <v>40336.2822</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40945.4866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.6883</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11589.088</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>264.7271</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50767.2334</v>
+        <v>-11362.7489</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0266</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.1873</v>
       </c>
       <c r="E7" s="1">
+        <v>3596.1448</v>
+      </c>
+      <c r="F7" s="1">
+        <v>758.3053</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>778.3797</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4390.6298</v>
-      </c>
       <c r="H7" s="1">
-        <v>57600.2327</v>
+        <v>47177.4644</v>
       </c>
       <c r="I7" s="1">
-        <v>61436.5528</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.9927</v>
+        <v>47177.4644</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50945.4866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.1667</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10264.7271</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57600.2327</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0521</v>
+        <v>-0.06279999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4354.4502</v>
       </c>
       <c r="F8" s="1">
         <v>766.0605</v>
       </c>
       <c r="G8" s="1">
-        <v>5156.6902</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>66965.2948</v>
+        <v>56547.3253</v>
       </c>
       <c r="I8" s="1">
-        <v>71436.5528</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8532</v>
+        <v>56547.3253</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60945.4866</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9961</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66965.2948</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.8433</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5120.5106</v>
       </c>
       <c r="F9" s="1">
         <v>722.3711</v>
       </c>
       <c r="G9" s="1">
-        <v>5879.0613</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80963.493</v>
+        <v>70517.1121</v>
       </c>
       <c r="I9" s="1">
-        <v>81436.5528</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.852</v>
+        <v>70517.1121</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70945.4866</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8552</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80963.493</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0519</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.4086</v>
       </c>
       <c r="E10" s="1">
+        <v>5842.8817</v>
+      </c>
+      <c r="F10" s="1">
+        <v>562.9923</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>526.8126999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6405.8741</v>
-      </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83751.2825</v>
       </c>
       <c r="I10" s="1">
-        <v>89027.1869</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8977</v>
+        <v>83751.2825</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79057.4179</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.5306</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-7590.6341</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2409.3659</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94230.5242</v>
+        <v>-8111.9313</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0359</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.9338</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6405.8741</v>
       </c>
       <c r="F11" s="1">
         <v>478.765</v>
       </c>
       <c r="G11" s="1">
-        <v>6884.6391</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95167.58689999999</v>
       </c>
       <c r="I11" s="1">
-        <v>96176.9684</v>
+        <v>1888.0687</v>
       </c>
       <c r="J11" s="1">
-        <v>13.9698</v>
+        <v>97055.6556</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86207.1994</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.4575</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7149.7815</v>
       </c>
-      <c r="O11" s="1">
-        <v>5259.5845</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107539.8485</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0318</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.9313</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6884.6391</v>
       </c>
       <c r="F12" s="1">
         <v>232.138</v>
       </c>
       <c r="G12" s="1">
-        <v>7116.7771</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>109112.5799</v>
       </c>
       <c r="I12" s="1">
-        <v>99875.22840000001</v>
+        <v>4738.2872</v>
       </c>
       <c r="J12" s="1">
-        <v>14.0338</v>
+        <v>113850.8672</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89905.45940000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.0588</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3698.2601</v>
       </c>
-      <c r="O12" s="1">
-        <v>11561.3244</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124352.9898</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.058</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.0207</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7116.7771</v>
       </c>
       <c r="F13" s="1">
         <v>168.4054</v>
       </c>
       <c r="G13" s="1">
-        <v>7285.1825</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>120504.1168</v>
       </c>
       <c r="I13" s="1">
-        <v>102741.6056</v>
+        <v>11040.0272</v>
       </c>
       <c r="J13" s="1">
-        <v>14.1028</v>
+        <v>131544.1439</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>92771.8366</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.0357</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2866.3772</v>
       </c>
-      <c r="O13" s="1">
-        <v>18694.9472</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142050.571</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0573</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.4608</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7285.1825</v>
       </c>
       <c r="F14" s="1">
         <v>-7285.1825</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126545.0766</v>
       </c>
       <c r="I14" s="1">
-        <v>102741.6056</v>
+        <v>18173.65</v>
       </c>
       <c r="J14" s="1">
-        <v>14.1028</v>
+        <v>144718.7266</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>92771.8366</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7343</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126545.0766</v>
       </c>
-      <c r="O14" s="1">
-        <v>145240.0238</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145240.0238</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0448</v>
+        <v>0.0224</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.3229</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1826</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1826</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3229</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.2341</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>698.1826</v>
       </c>
       <c r="F3" s="1">
         <v>702.5383</v>
       </c>
       <c r="G3" s="1">
-        <v>1400.7209</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19834.4881</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2784</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3229</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19834.4881</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0057</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.7456</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1400.7209</v>
       </c>
       <c r="F4" s="1">
         <v>727.5055</v>
       </c>
       <c r="G4" s="1">
-        <v>2128.2264</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29102.0067</v>
+        <v>19153.8778</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19153.8778</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29102.0067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0246</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.5325</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2128.2264</v>
       </c>
       <c r="F5" s="1">
         <v>680.3597</v>
       </c>
       <c r="G5" s="1">
-        <v>2808.5861</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30767.9823</v>
       </c>
       <c r="I5" s="1">
-        <v>39887.3268</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.2019</v>
+        <v>30767.9823</v>
       </c>
       <c r="K5" s="1">
+        <v>29887.3268</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14.0433</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75</v>
       </c>
-      <c r="L5" s="1">
-        <v>1436.5528</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8450.773999999999</v>
+        <v>945.4866</v>
       </c>
       <c r="O5" s="1">
-        <v>1549.226</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42153.236</v>
+        <v>-8941.840200000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.078</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.0538</v>
       </c>
       <c r="E6" s="1">
+        <v>2808.5861</v>
+      </c>
+      <c r="F6" s="1">
+        <v>786.8448</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>821.7867</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3630.3728</v>
-      </c>
       <c r="H6" s="1">
-        <v>50755.8791</v>
+        <v>39266.5613</v>
       </c>
       <c r="I6" s="1">
-        <v>51436.5528</v>
+        <v>1058.1598</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1684</v>
+        <v>40324.7211</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40945.4866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.5787</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11549.226</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50755.8791</v>
+        <v>-11058.1598</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0268</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.1873</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3595.4309</v>
       </c>
       <c r="F7" s="1">
         <v>758.3053</v>
       </c>
       <c r="G7" s="1">
-        <v>4388.6781</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>57574.6297</v>
+        <v>47168.0987</v>
       </c>
       <c r="I7" s="1">
-        <v>61436.5528</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.9989</v>
+        <v>47168.0987</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50945.4866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.1695</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57574.6297</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0524</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4353.7363</v>
       </c>
       <c r="F8" s="1">
         <v>766.0605</v>
       </c>
       <c r="G8" s="1">
-        <v>5154.7386</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>66939.9509</v>
+        <v>56538.0544</v>
       </c>
       <c r="I8" s="1">
-        <v>71436.5528</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8584</v>
+        <v>56538.0544</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60945.4866</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9984</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66939.9509</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.8433</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5119.7967</v>
       </c>
       <c r="F9" s="1">
         <v>722.3711</v>
       </c>
       <c r="G9" s="1">
-        <v>5877.1097</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80936.6164</v>
+        <v>70507.28049999999</v>
       </c>
       <c r="I9" s="1">
-        <v>81436.5528</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8566</v>
+        <v>70507.28049999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70945.4866</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8571</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80936.6164</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0519</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.4086</v>
       </c>
       <c r="E10" s="1">
+        <v>5842.1678</v>
+      </c>
+      <c r="F10" s="1">
+        <v>693.7556</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>658.8137</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6535.9234</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83741.0494</v>
       </c>
       <c r="I10" s="1">
-        <v>90929.136</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9122</v>
+        <v>83741.0494</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80941.5334</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8547</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9492.583199999999</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>507.4168</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94192.68949999999</v>
+        <v>-9996.0468</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0358</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.9338</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6535.9234</v>
       </c>
       <c r="F11" s="1">
         <v>506.3499</v>
       </c>
       <c r="G11" s="1">
-        <v>7042.2733</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>97099.6391</v>
       </c>
       <c r="I11" s="1">
-        <v>98490.8645</v>
+        <v>3.9532</v>
       </c>
       <c r="J11" s="1">
-        <v>13.9857</v>
+        <v>97103.5923</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88503.2619</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.541</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7561.7285</v>
       </c>
-      <c r="O11" s="1">
-        <v>2945.6883</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107567.8138</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0324</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.9313</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7042.2733</v>
       </c>
       <c r="F12" s="1">
         <v>256.0127</v>
       </c>
       <c r="G12" s="1">
-        <v>7298.2861</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>111610.8775</v>
       </c>
       <c r="I12" s="1">
-        <v>102569.4803</v>
+        <v>2442.2247</v>
       </c>
       <c r="J12" s="1">
-        <v>14.0539</v>
+        <v>114053.1022</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92581.8777</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1466</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4078.6158</v>
       </c>
-      <c r="O12" s="1">
-        <v>8867.0725</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124535.4192</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0593</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.0207</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7298.2861</v>
       </c>
       <c r="F13" s="1">
         <v>191.7939</v>
       </c>
       <c r="G13" s="1">
-        <v>7490.08</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>123577.4993</v>
       </c>
       <c r="I13" s="1">
-        <v>105833.9466</v>
+        <v>8363.608899999999</v>
       </c>
       <c r="J13" s="1">
-        <v>14.1299</v>
+        <v>131941.1082</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95846.344</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.1327</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3264.4662</v>
       </c>
-      <c r="O13" s="1">
-        <v>15602.6063</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142427.6364</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0587</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.4608</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7490.08</v>
       </c>
       <c r="F14" s="1">
         <v>-7490.08</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130104.1871</v>
       </c>
       <c r="I14" s="1">
-        <v>105833.9466</v>
+        <v>15099.1426</v>
       </c>
       <c r="J14" s="1">
-        <v>14.1299</v>
+        <v>145203.3298</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95846.344</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7964</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130104.1871</v>
       </c>
-      <c r="O14" s="1">
-        <v>145706.7934</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145706.7934</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0441</v>
+        <v>0.023</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.3229</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>698.1826</v>
       </c>
       <c r="G2" s="1">
-        <v>698.1826</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.3229</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.2341</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>698.1826</v>
       </c>
       <c r="F3" s="1">
         <v>702.5383</v>
       </c>
       <c r="G3" s="1">
-        <v>1400.7209</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19834.4881</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.2784</v>
+        <v>9886.405699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.3229</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19834.4881</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0057</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.7456</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1400.7209</v>
       </c>
       <c r="F4" s="1">
         <v>727.5055</v>
       </c>
       <c r="G4" s="1">
-        <v>2128.2264</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29102.0067</v>
+        <v>19153.8778</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.0962</v>
+        <v>19153.8778</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29102.0067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0246</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.5325</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2128.2264</v>
       </c>
       <c r="F5" s="1">
         <v>688.1129</v>
       </c>
       <c r="G5" s="1">
-        <v>2816.3393</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40716.0986</v>
+        <v>30767.9823</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.2028</v>
+        <v>30767.9823</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14.0962</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75</v>
       </c>
-      <c r="L5" s="1">
-        <v>1436.5528</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8563.447200000001</v>
+        <v>945.4866</v>
       </c>
       <c r="O5" s="1">
-        <v>1436.5528</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42152.6515</v>
+        <v>-9054.5134</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.078</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.0538</v>
       </c>
       <c r="E6" s="1">
+        <v>2816.3393</v>
+      </c>
+      <c r="F6" s="1">
+        <v>778.8275</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>813.7694</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3630.1087</v>
-      </c>
       <c r="H6" s="1">
-        <v>50752.1869</v>
+        <v>39374.9579</v>
       </c>
       <c r="I6" s="1">
-        <v>51436.5528</v>
+        <v>945.4866</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1694</v>
+        <v>40320.4445</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40945.4866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.5385</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11436.5528</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50752.1869</v>
+        <v>-10945.4866</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0269</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.1873</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3595.1668</v>
       </c>
       <c r="F7" s="1">
         <v>758.3053</v>
       </c>
       <c r="G7" s="1">
-        <v>4388.4141</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>57571.1651</v>
+        <v>47164.6341</v>
       </c>
       <c r="I7" s="1">
-        <v>61436.5528</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.9997</v>
+        <v>47164.6341</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50945.4866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.1705</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57571.1651</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0524</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.0538</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4353.4722</v>
       </c>
       <c r="F8" s="1">
         <v>766.0605</v>
       </c>
       <c r="G8" s="1">
-        <v>5154.4745</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>66936.5214</v>
+        <v>56534.6249</v>
       </c>
       <c r="I8" s="1">
-        <v>71436.5528</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.8591</v>
+        <v>56534.6249</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60945.4866</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9993</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66936.5214</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.8433</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5119.5326</v>
       </c>
       <c r="F9" s="1">
         <v>722.3711</v>
       </c>
       <c r="G9" s="1">
-        <v>5876.8456</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80932.9795</v>
+        <v>70503.6436</v>
       </c>
       <c r="I9" s="1">
-        <v>81436.5528</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8572</v>
+        <v>70503.6436</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70945.4866</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8578</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80932.9795</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0519</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.4086</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5841.9037</v>
       </c>
       <c r="F10" s="1">
         <v>694.03</v>
       </c>
       <c r="G10" s="1">
-        <v>6570.8756</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94186.27340000001</v>
+        <v>83737.264</v>
       </c>
       <c r="I10" s="1">
-        <v>91436.5528</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9154</v>
+        <v>83737.264</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80945.4866</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.856</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94186.27340000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0358</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.9338</v>
       </c>
       <c r="E11" s="1">
+        <v>6535.9337</v>
+      </c>
+      <c r="F11" s="1">
+        <v>668.23</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>633.2881</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7204.1637</v>
-      </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>97099.7917</v>
       </c>
       <c r="I11" s="1">
-        <v>100893.9506</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0049</v>
+        <v>97099.7917</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90924.6994</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9115</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9457.3977</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>542.6023</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107569.819</v>
+        <v>-9979.212799999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0325</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.9313</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7204.1637</v>
       </c>
       <c r="F12" s="1">
         <v>281.1585</v>
       </c>
       <c r="G12" s="1">
-        <v>7485.3221</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>114176.6287</v>
       </c>
       <c r="I12" s="1">
-        <v>105373.1705</v>
+        <v>20.7872</v>
       </c>
       <c r="J12" s="1">
-        <v>14.0773</v>
+        <v>114197.4159</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95403.91929999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.2429</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4479.2199</v>
       </c>
-      <c r="O12" s="1">
-        <v>6063.3824</v>
-      </c>
-      <c r="P12" s="1">
-        <v>124696.0073</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0606</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.0207</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7485.3221</v>
       </c>
       <c r="F13" s="1">
         <v>216.6052</v>
       </c>
       <c r="G13" s="1">
-        <v>7701.9273</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>126744.4685</v>
       </c>
       <c r="I13" s="1">
-        <v>109059.9425</v>
+        <v>5541.5673</v>
       </c>
       <c r="J13" s="1">
-        <v>14.1601</v>
+        <v>132286.0358</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99090.69130000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.238</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3686.772</v>
       </c>
-      <c r="O13" s="1">
-        <v>12376.6104</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142788.7247</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0601</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.4608</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7701.9273</v>
       </c>
       <c r="F14" s="1">
         <v>-7701.9273</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>133784.0181</v>
       </c>
       <c r="I14" s="1">
-        <v>109059.9425</v>
+        <v>11854.7953</v>
       </c>
       <c r="J14" s="1">
-        <v>14.1601</v>
+        <v>145638.8134</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99090.69130000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.8657</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>133784.0181</v>
       </c>
-      <c r="O14" s="1">
-        <v>146160.6285</v>
-      </c>
-      <c r="P14" s="1">
-        <v>146160.6285</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0434</v>
+        <v>0.0236</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.4137</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.3662</v>
+        <v>13.1781</v>
       </c>
       <c r="D3" s="1">
-        <v>14.0788</v>
+        <v>12.6712</v>
       </c>
       <c r="E3" s="1">
-        <v>14.1028</v>
+        <v>12.7343</v>
       </c>
       <c r="F3" s="1">
-        <v>14.1299</v>
+        <v>12.7964</v>
       </c>
       <c r="G3" s="1">
-        <v>14.1601</v>
+        <v>12.8657</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2108</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1618</v>
+        <v>0.2179</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1463</v>
+        <v>0.2023</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1498</v>
+        <v>0.2059</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1532</v>
+        <v>0.2097</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1567</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1491</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1489</v>
+        <v>0.1436</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1475</v>
+        <v>0.1401</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1484</v>
+        <v>0.1414</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1491</v>
+        <v>0.1425</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1498</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2773</v>
       </c>
       <c r="C6" s="4">
-        <v>0.95</v>
+        <v>1.3758</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8541</v>
+        <v>1.2987</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8725000000000001</v>
+        <v>1.3123</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8911</v>
+        <v>1.3291</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9105</v>
+        <v>1.3436</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.441</v>
+        <v>0.255</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4293</v>
+        <v>0.4178</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4312</v>
+        <v>0.4203</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4335</v>
+        <v>0.4232</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4365</v>
+        <v>0.4262</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1436.5528</v>
+        <v>945.4866</v>
       </c>
       <c r="D8" s="1">
-        <v>1436.5528</v>
+        <v>945.4866</v>
       </c>
       <c r="E8" s="1">
-        <v>1436.5528</v>
+        <v>945.4866</v>
       </c>
       <c r="F8" s="1">
-        <v>1436.5528</v>
+        <v>945.4866</v>
       </c>
       <c r="G8" s="1">
-        <v>1436.5528</v>
+        <v>945.4866</v>
       </c>
     </row>
   </sheetData>
